--- a/data/extracted_data/raw_round2/Blogoslawski_1978_Table_1.xlsx
+++ b/data/extracted_data/raw_round2/Blogoslawski_1978_Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5859F6-B808-5644-8967-C353D8CABE6A}"/>
   <bookViews>
-    <workbookView xWindow="22280" yWindow="4940" windowWidth="28040" windowHeight="17440" xr2:uid="{44F19453-3990-7244-8BF3-9C3E2F2B0DDB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{44F19453-3990-7244-8BF3-9C3E2F2B0DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>toxticity</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>*depuration period is 12 weeks</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -148,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,262 +461,262 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1642</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1048.9000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>522.5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1601.8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>766.7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>383.5</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1140</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>761.5</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>335.7</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>248.4</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>148.5</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>41.6</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>55.6</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>38.1</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/extracted_data/raw_round2/Blogoslawski_1978_Table_1.xlsx
+++ b/data/extracted_data/raw_round2/Blogoslawski_1978_Table_1.xlsx
@@ -145,6 +145,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/extracted_data/raw_round2/Blogoslawski_1978_Table_1.xlsx
+++ b/data/extracted_data/raw_round2/Blogoslawski_1978_Table_1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5859F6-B808-5644-8967-C353D8CABE6A}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{D43F23D3-72F9-F643-90CA-F9A6C5CA3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{443FC3E4-7CDC-FE4D-A698-D3821537CA15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{44F19453-3990-7244-8BF3-9C3E2F2B0DDB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{44F19453-3990-7244-8BF3-9C3E2F2B0DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,63 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>toxticity</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>mantle-raw</t>
-  </si>
-  <si>
-    <t>mantle-ozonized</t>
-  </si>
-  <si>
-    <t>gill-raw</t>
-  </si>
-  <si>
-    <t>gill-ozonized</t>
-  </si>
-  <si>
-    <t>visceral mass-raw</t>
-  </si>
-  <si>
-    <t>visceral mass-ozonized</t>
-  </si>
-  <si>
-    <t>siphon-raw</t>
-  </si>
-  <si>
-    <t>siphon-ozonized</t>
-  </si>
-  <si>
-    <t>foot-raw</t>
-  </si>
-  <si>
-    <t>foot-ozonized</t>
-  </si>
-  <si>
-    <t>adductor muscle-raw</t>
-  </si>
-  <si>
-    <t>adductor muscle-ozonized</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
     <t>*depuration period is 12 weeks</t>
   </si>
   <si>
     <t>day</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>mantle</t>
+  </si>
+  <si>
+    <t>ozonized</t>
+  </si>
+  <si>
+    <t>gill</t>
+  </si>
+  <si>
+    <t>visceral mass</t>
+  </si>
+  <si>
+    <t>siphon</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>adductor muscle</t>
+  </si>
+  <si>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -128,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,279 +440,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DD7AE0-235F-974B-BC57-D527EB499B30}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="1" max="3" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E2">
+        <f>D2-$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1642</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E23" si="0">D3-$D$2</f>
+        <v>61</v>
+      </c>
+      <c r="F3">
         <v>1048.9000000000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1642</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F5">
         <v>522.5</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1601.8</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F7">
         <v>766.7</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1601.8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>383.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>383.5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1140</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F11">
         <v>761.5</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>507</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>545</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>335.7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>248.4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>507</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>214</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>545</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>335.7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>545</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>248.4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>214</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F19">
         <v>148.5</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>214</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F21">
         <v>41.6</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27668</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>55.6</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>27729</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F23">
         <v>38.1</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
+      <c r="G23" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
